--- a/professor/professor.xlsx
+++ b/professor/professor.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,1298 +446,1232 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>강현정</t>
+          <t>김종욱</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영정보시스템 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hjkang@hongik.ac.kr</t>
+          <t>jukim@skku.ac.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-320-1701</t>
+          <t>02-760-0417</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김유찬</t>
+          <t>김태웅</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">세무학 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>99yckim@hongik.ac.kr</t>
+          <t>tukim@skku.edu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-320-1708</t>
+          <t>02-760-0452</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>류춘호</t>
+          <t>박기우</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ryuch@wow.hongik.ac.kr</t>
+          <t>gwbock@skku.edu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-320-1715</t>
+          <t>02-760-0451</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>문태원</t>
+          <t>이건창</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Organizational Behavior</t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>leekc@skku.edu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0505</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>변지석</t>
+          <t>이원준</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영정보학 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>leewj@skku.edu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0459</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>신병현</t>
+          <t>장시영</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">조직행동 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>shinbh@wow.hongik.ac.kr</t>
+          <t>syjang@skku.edu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02-320-1721</t>
+          <t>02-760-0458</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>신성환</t>
+          <t>장영봉</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">재무관리 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>shshin@hongik.ac.kr</t>
+          <t>ybchang01@skku.edu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0569</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>신형덕</t>
+          <t>김용석</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영전략 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shinhd@hongik.ac.kr</t>
+          <t>yongskim@skku.edu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02-320-1724</t>
+          <t>02-760-0408</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>안형준</t>
+          <t>변종복</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영정보시스템 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hjahn@hongik.ac.kr</t>
+          <t>jbyun@skku.edu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02-320-1730</t>
+          <t>02-760-0481</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>윤나라</t>
+          <t>서아영</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">마케팅 </t>
+          <t>경영정보</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nara@hongik.ac.kr</t>
+          <t>aysuh@skku.edu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02-320-1728</t>
+          <t>02-760-0574</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>윤재원</t>
+          <t>박명섭</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">회계학 </t>
+          <t>국제경영/무역</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>mspak@skku.edu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0624</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이경주</t>
+          <t>정홍주</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">보험이론 </t>
+          <t>국제경영/무역</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>jungpro@skku.edu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0480</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이광철</t>
+          <t>김용준</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">국제경영 </t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kclee@hongik.ac.kr</t>
+          <t>kimyj@skku.edu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>02-760-0453</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>이기엽</t>
+          <t>김정구</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영통계 및 마케팅 </t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>kimkim@skku.edu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0460</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이재은</t>
+          <t>김학균</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>회계학</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jelee@hongik.ac.kr</t>
+          <t>hakkyunkim@skku.edu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02-320-1733</t>
+          <t>02-760-0479</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>이호배</t>
+          <t>류성민</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">마케팅 </t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hblee@hongik.ac.kr</t>
+          <t>smryu@skku.edu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02-320-1736</t>
+          <t>02-760-0483</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>임병권</t>
+          <t>이석규</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">전기공학 </t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bkrhim@hongik.ac.kr</t>
+          <t>sukekyu@skku.edu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02-320-1767</t>
+          <t>02-760-0629</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>정영기</t>
+          <t>이은주</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경영학</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>elee9@skku.edu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0141</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>정태영</t>
+          <t>전선규</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">국제경영, 국제재무 </t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tychung@hongik.ac.kr</t>
+          <t>skjun@skku.edu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>02-320-1740</t>
+          <t>02-760-0496</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>고정민</t>
+          <t>한상만</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>조직이론/인사관리전공</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>smhan@skku.edu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0456</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>권경민</t>
+          <t>김지영</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>km.kwon@hongik.ac.kr</t>
+          <t>alex.kim@skku.edu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>02-320-1700</t>
+          <t>02-760-0447</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>박민재</t>
+          <t>김태완</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mjpark@hongik.ac.kr</t>
+          <t>tak2@skku.edu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>02-320-1720</t>
+          <t>02-760-0888</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>양인선</t>
+          <t>심수옥</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>iyang@hongik.ac.kr</t>
+          <t>sueshim@skku.edu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>02-320-1752</t>
+          <t>02-760-0610</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>이승윤</t>
+          <t>손정화</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>인사조직</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>syrhee@hongik.ac.kr</t>
+          <t>jh.son@skku.edu</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0466</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>이진표</t>
+          <t>한영지</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>마케팅</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>jinpyo.lee@hongik.ac.kr</t>
+          <t>yjhan@skku.edu</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02-320-1734</t>
+          <t>02-760-0442</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>정광헌</t>
+          <t>문철우</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>khchung@hongik.ac.kr</t>
+          <t>cwmoon@skku.edu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0625</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>조성호</t>
+          <t>차동옥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전략경영</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>dochah@skku.edu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0457</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>조원일</t>
+          <t>현선해</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경영학</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>twokids@skku.edu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0454</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>황현철</t>
+          <t>김도현</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>응용수학</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hchwang@hongik.ac.kr</t>
+          <t>tohyunkim@skku.edu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0475</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yoon-Na Cho</t>
+          <t>김상균</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">마케팅 </t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>sangkkim@skku.edu</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-740-1663</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>곽소연</t>
+          <t>김안드레아</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>회계학</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sykwack@hongik.ac.kr</t>
+          <t>akim@skku.edu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-740-1664</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>김승범</t>
+          <t>양백</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>prof.sbkim@gmail.com</t>
+          <t>byang1@skku.edu</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0446</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>김진희</t>
+          <t>신지선</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jh_kim@hongik.ac.kr</t>
+          <t>jishin@skku.edu</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>02-740-1665</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>박상희</t>
+          <t>김영상</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">인사관리/조직행동 </t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>spark436@hongik.ac.kr</t>
+          <t>ykim03@skku.edu</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0887</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>안혜진</t>
+          <t>배준형</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">회계학전공  </t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>hjinahn@hongik.ac.kr</t>
+          <t>joonbae@skku.edu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>02-320-1761</t>
+          <t>02-760-0570</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>유건재</t>
+          <t>천진석</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Industrial and Labor Relations</t>
+          <t>매니지먼트</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gy52@hongik.ac.kr</t>
+          <t>jschun@skku.edu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>02-320-1718</t>
+          <t>02-760-0570</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>이대창</t>
+          <t>박영규</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>노동경제학</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>daechang.lee@hongik.ac.kr</t>
+          <t>ykp@skku.ac.kr</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0418</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>이미림</t>
+          <t>서정원</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경영과학/생산관리</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>mllee@hongik.ac.kr</t>
+          <t>jungwonsuh@skku.edu</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0482</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>이승연</t>
+          <t>송교직</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영학 </t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>yonylee@hongik.ac.kr</t>
+          <t>roysong@skku.edu</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0497</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>이준환</t>
+          <t>신영석</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marketing Consumer Behavior</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>jdfresh@hongik.ac.kr</t>
+          <t>yshin57@skku.edu</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0477</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>장웅조</t>
+          <t>안희준</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Arts Policy and Administration</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>woongjochang@hongik.ac.kr</t>
+          <t>heejoon@skku.edu</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>02-320-1968</t>
+          <t>02-760-0455</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>정남철</t>
+          <t>최종범</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영학과  </t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>jbchay@skku.edu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0484</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>정호진</t>
+          <t>김영한</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>hojin@hongik.ac.kr</t>
+          <t>ayhkim@skku.edu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>02-320-1711</t>
+          <t>02-760-0622</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>조나은</t>
+          <t>한중호</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영전략 </t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ncho@hongik.ac.kr</t>
+          <t>joonghohan@skku.edu</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-740-1662</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>조형태</t>
+          <t>김다혜</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">세무회계 </t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>cht1212@hongik.ac.kr</t>
+          <t>daheakim@skku.edu</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02-320-1764</t>
+          <t>02-760-0889</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>최용준</t>
+          <t>박흥주</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>경영학(인사조직)</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>yongjun.choi@hongik.ac.kr</t>
+          <t>hj.park@skku.edu</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0448</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>한승엽</t>
+          <t>오종민</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>회계학</t>
+          <t>재무</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>goodwillhan@hongik.ac.kr</t>
+          <t>jongmin.oh@skku.edu</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>02-760-0462</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>한승진</t>
+          <t>백원선</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>재무학</t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sjhan7@hongik.ac.kr</t>
+          <t>wpaek@skku.edu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>02-320-1749</t>
+          <t>02-760-0415</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>현은정</t>
+          <t>백태영</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영(조직) </t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ejhyun@hongik.ac.kr</t>
+          <t>typaik@skku.edu</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 320 1756</t>
+          <t>02-760-0504</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>홍기훈</t>
+          <t>최관</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">economics  </t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>khhong@hongik.ac.kr</t>
+          <t>kwanchoi@skku.edu</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0503</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ogata Yoshihiro</t>
+          <t>최영수</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>정치학</t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ogata@hongik.ac.kr</t>
+          <t>sericys@skku.edu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>02-320-3340</t>
+          <t>02-760-0423</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zheng Zhenmei</t>
+          <t>이종은</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>중어중문학</t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>jmclara0811@empas.com</t>
+          <t>jelee2012@skku.edu</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0441</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bernard D. Wiley</t>
+          <t>정문기</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Political Science</t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bwhongik@gmail.com</t>
+          <t>mkchung@skku.edu</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0476</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Michael R. Spillane</t>
+          <t>안민관</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>English Literature</t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>spillachio@yahoo.co.uk</t>
+          <t>mkchung@skku.edu</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0476</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>김형욱</t>
+          <t>조현권</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">생산관리 </t>
+          <t>회계</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>hyunkwon@skku.edu</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>비공개</t>
+          <t>02-760-0449</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>선우석호</t>
+          <t>조셉킴</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">재무관리 </t>
+          <t>비즈</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sonu@hongik.ac.kr</t>
+          <t>josephskim@skku.edu</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>비공개</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>신홍철</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">관리회계 </t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>shinhc@hongik.ac.kr</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>02-320-1722</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>임창희</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">인사, 조직 </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>sky33@hongik.ac.kr</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>비공개</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>김카이</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>생산관리</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>kaikj.kim@hongik.ac.kr</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>비공개</t>
+          <t>02-760-0142</t>
         </is>
       </c>
     </row>

--- a/professor/professor.xlsx
+++ b/professor/professor.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,1232 +446,8612 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김종욱</t>
+          <t>Barlat Frederic Gera</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jukim@skku.ac.kr</t>
+          <t>f.barlat@postech.ac.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-760-0417</t>
+          <t>054) 279-9022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김태웅</t>
+          <t>감종훈</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>환경공학부</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tukim@skku.edu</t>
+          <t>jhkam@postech.ac.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-760-0452</t>
+          <t>054) 054-279-2318</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>박기우</t>
+          <t>강교철</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>컴퓨터공학과</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gwbock@skku.edu</t>
+          <t>kck@postech.ac.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-760-0451</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이건창</t>
+          <t>강명호</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>물리학과</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>leekc@skku.edu</t>
+          <t>kang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-760-0505</t>
+          <t>054) 279-2086</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이원준</t>
+          <t>강병균</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>leewj@skku.edu</t>
+          <t>bgkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02-760-0459</t>
+          <t>054) 279-2048</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>장시영</t>
+          <t>강병우</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>신소재공학과</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>syjang@skku.edu</t>
+          <t>bwkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02-760-0458</t>
+          <t>054) 279-2154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>장영봉</t>
+          <t>강석형</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ybchang01@skku.edu</t>
+          <t>shkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02-760-0569</t>
+          <t>054) 054-279-2379</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김용석</t>
+          <t>강윤배</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yongskim@skku.edu</t>
+          <t>ybkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02-760-0408</t>
+          <t>054) 279-9032</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>변종복</t>
+          <t>강인석</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>화학공학과</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jbyun@skku.edu</t>
+          <t>iskang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02-760-0481</t>
+          <t>054) 279-2273</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>서아영</t>
+          <t>고영명</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경영정보</t>
+          <t>산업경영공학과</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>aysuh@skku.edu</t>
+          <t>youngko@postech.ac.kr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02-760-0574</t>
+          <t>054) 279-2373</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>박명섭</t>
+          <t>고용송</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>국제경영/무역</t>
+          <t>생명과학과</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mspak@skku.edu</t>
+          <t>ysgho@postech.ac.kr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02-760-0624</t>
+          <t>054) 279-2345</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>정홍주</t>
+          <t>고인수</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>국제경영/무역</t>
+          <t>포항가속기연구소</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jungpro@skku.edu</t>
+          <t>isko@postech.ac.kr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>02-760-0480</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>김용준</t>
+          <t>Barlat Frederic Gera</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kimyj@skku.edu</t>
+          <t>f.barlat@postech.ac.kr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>02-760-0453</t>
+          <t>054) 279-9022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>김정구</t>
+          <t>감종훈</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>환경공학부</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>kimkim@skku.edu</t>
+          <t>jhkam@postech.ac.kr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02-760-0460</t>
+          <t>054) 054-279-2318</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김학균</t>
+          <t>강교철</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>컴퓨터공학과</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hakkyunkim@skku.edu</t>
+          <t>kck@postech.ac.kr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02-760-0479</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>류성민</t>
+          <t>강명호</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>물리학과</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>smryu@skku.edu</t>
+          <t>kang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02-760-0483</t>
+          <t>054) 279-2086</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>이석규</t>
+          <t>강병균</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sukekyu@skku.edu</t>
+          <t>bgkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02-760-0629</t>
+          <t>054) 279-2048</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>이은주</t>
+          <t>강병우</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>신소재공학과</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>elee9@skku.edu</t>
+          <t>bwkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02-760-0141</t>
+          <t>054) 279-2154</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>전선규</t>
+          <t>강석형</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>skjun@skku.edu</t>
+          <t>shkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>02-760-0496</t>
+          <t>054) 054-279-2379</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>한상만</t>
+          <t>강윤배</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>smhan@skku.edu</t>
+          <t>ybkang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>02-760-0456</t>
+          <t>054) 279-9032</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>김지영</t>
+          <t>강인석</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>화학공학과</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>alex.kim@skku.edu</t>
+          <t>iskang@postech.ac.kr</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>02-760-0447</t>
+          <t>054) 279-2273</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>김태완</t>
+          <t>고영명</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>산업경영공학과</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tak2@skku.edu</t>
+          <t>youngko@postech.ac.kr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>02-760-0888</t>
+          <t>054) 279-2373</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>심수옥</t>
+          <t>고용송</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>생명과학과</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sueshim@skku.edu</t>
+          <t>ysgho@postech.ac.kr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>02-760-0610</t>
+          <t>054) 279-2345</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>손정화</t>
+          <t>고인수</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>포항가속기연구소</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>jh.son@skku.edu</t>
+          <t>isko@postech.ac.kr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02-760-0466</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>한영지</t>
+          <t>고정휴</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>인문사회학부</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>yjhan@skku.edu</t>
+          <t>jhko@postech.ac.kr</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02-760-0442</t>
+          <t>054) 279-2033</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>문철우</t>
+          <t>공병돈</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cwmoon@skku.edu</t>
+          <t>bdkong@postech.ac.kr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02-760-0625</t>
+          <t>054) 054-279-2370</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>차동옥</t>
+          <t>곽수하</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>인공지능대학원</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>dochah@skku.edu</t>
+          <t>mercury3@postech.ac.kr</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>02-760-0457</t>
+          <t>054) 054-279-2390</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>현선해</t>
+          <t>곽진호</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>twokids@skku.edu</t>
+          <t>jinkwak@postech.ac.kr</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>02-760-0454</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>김도현</t>
+          <t>구자강</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>화학과</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>tohyunkim@skku.edu</t>
+          <t>jkku@postech.ac.kr</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>02-760-0475</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>김상균</t>
+          <t>국종성</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>환경공학부</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sangkkim@skku.edu</t>
+          <t>jskug@postech.ac.kr</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>02-740-1663</t>
+          <t>054) 279-2287</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>김안드레아</t>
+          <t>권경환</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>akim@skku.edu</t>
+          <t>kwun@postech.ac.kr</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02-740-1664</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>양백</t>
+          <t>권봉환</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>byang1@skku.edu</t>
+          <t>bhkwon@postech.ac.kr</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>02-760-0446</t>
+          <t>054) 279-2219</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>신지선</t>
+          <t>권세윤</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>환경공학부</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jishin@skku.edu</t>
+          <t>saeyunk@postech.ac.kr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>02-740-1665</t>
+          <t>054) 054-279-2290</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>김영상</t>
+          <t>권수옥</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>인문사회학부</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ykim03@skku.edu</t>
+          <t>soook@postech.ac.kr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02-760-0887</t>
+          <t>054) 279-2038</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>배준형</t>
+          <t>권순주</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>신소재공학과</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joonbae@skku.edu</t>
+          <t>soonju@postech.ac.kr</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>02-760-0570</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>천진석</t>
+          <t>권오대</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>매니지먼트</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>jschun@skku.edu</t>
+          <t>odkwon@postech.ac.kr</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>02-760-0570</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>박영규</t>
+          <t>권재용</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ykp@skku.ac.kr</t>
+          <t>kweon@postech.ac.kr</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>02-760-0418</t>
+          <t>054) 279-2053</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>서정원</t>
+          <t>김강태</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>jungwonsuh@skku.edu</t>
+          <t>kimkt@postech.ac.kr</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02-760-0482</t>
+          <t>054) 279-2043</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>송교직</t>
+          <t>김건우</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>roysong@skku.edu</t>
+          <t>kunwoo@postech.ac.kr</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>02-760-0497</t>
+          <t>054) 054-279-2327</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>신영석</t>
+          <t>김경태</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>생명과학과</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>yshin57@skku.edu</t>
+          <t>ktk@postech.ac.kr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>02-760-0477</t>
+          <t>054) 279-2297</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>안희준</t>
+          <t>김경태</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>전자전기공학과</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>heejoon@skku.edu</t>
+          <t>kkt@postech.ac.kr</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>02-760-0455</t>
+          <t>054) 279-2381</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>최종범</t>
+          <t>김경환</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>화학과</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>jbchay@skku.edu</t>
+          <t>kimkyunghwan@postech.ac.kr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>02-760-0484</t>
+          <t>054) 0542792343</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>김영한</t>
+          <t>김광선</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>컴퓨터공학과</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ayhkim@skku.edu</t>
+          <t>gangsun@postech.ac.kr</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>02-760-0622</t>
+          <t>054) 054-279-2260</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>한중호</t>
+          <t>김광수</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>기계공학과</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joonghohan@skku.edu</t>
+          <t>illini@postech.ac.kr</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>02-740-1662</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>김다혜</t>
+          <t>김광순</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>생명과학과</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>daheakim@skku.edu</t>
+          <t>kskim27@postech.ac.kr</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02-760-0889</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>박흥주</t>
+          <t>김광익</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>수학과</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>hj.park@skku.edu</t>
+          <t>kimki@postech.ac.kr</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>02-760-0448</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>오종민</t>
+          <t>김광재</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>재무</t>
+          <t>산업경영공학과</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>jongmin.oh@skku.edu</t>
+          <t>kjk@postech.ac.kr</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>02-760-0462</t>
+          <t>054) 279-2208</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>백원선</t>
+          <t>김규영</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>wpaek@skku.edu</t>
+          <t>kykim@postech.ac.kr</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>02-760-0415</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>백태영</t>
+          <t>김기문</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>화학과</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>typaik@skku.edu</t>
+          <t>kkim@postech.ac.kr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>02-760-0504</t>
+          <t>054) 279-2113</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>최관</t>
+          <t>김기석</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>물리학과</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>kwanchoi@skku.edu</t>
+          <t>tkfkd@postech.ac.kr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>02-760-0503</t>
+          <t>054) 279-2082</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>최영수</t>
+          <t>김기태</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>기계공학과</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sericys@skku.edu</t>
+          <t>korean@postech.ac.kr</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>02-760-0423</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>이종은</t>
+          <t>김기현</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>기계공학과</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>jelee2012@skku.edu</t>
+          <t>kiheankim@postech.ac.kr</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>02-760-0441</t>
+          <t>054) 054-279-2190</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>정문기</t>
+          <t>김기훈</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>기계공학과</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>mkchung@skku.edu</t>
+          <t>khk@postech.ac.kr</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>02-760-0476</t>
+          <t>054) 054-279-2178</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>안민관</t>
+          <t>김낙준</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>철강 · 에너지소재대학원</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>mkchung@skku.edu</t>
+          <t>njkim@postech.ac.kr</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>02-760-0476</t>
+          <t xml:space="preserve">054) </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>조현권</t>
+          <t>김대진</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>회계</t>
+          <t>컴퓨터공학과</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>hyunkwon@skku.edu</t>
+          <t>dkim@postech.ac.kr</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>02-760-0449</t>
+          <t>054) 279-2249</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>조셉킴</t>
+          <t>김덕영</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>비즈</t>
+          <t>산업경영공학과</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>josephskim@skku.edu</t>
+          <t>skyward@postech.ac.kr</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>02-760-0142</t>
+          <t>054) 054-279-2209</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>김동성</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>smkds@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>054) 279-2183</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>김동식</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>dskim87@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>054) 279-2179</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김동언</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>kimd@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>054) 279-2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>김동우</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>dongwookim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>054) 054-279-2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>김동표</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>dpkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>054) 279-2272</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>김동한</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>dhkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>김명수</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>kms@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>054) 279-2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>김무환</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>포항공과대학교</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>mhkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>054) 279-2165</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>김민성</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cggs@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>054) 054-279-2362</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>김민정</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>kimj@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>054) 279-2037</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>김범만</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>bmkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>김범준</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>bjkim6@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>054) 054-279-5926</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>김병섭</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>byungsub@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>054) 279-2382</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>김병원</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>bwkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>김병인</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>bkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>054) 279-2371</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>김병현</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>김상우</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>swkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>054) 279-2237</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>김상욱</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>sukim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>054) 279-2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>김선효</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>seonhyo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>김성준</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>sjkim1@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>054) 054-279-9038</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>김성지</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sungjee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>054) 279-2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>김세영</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>kimseyoung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>054) 054-279-2133</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>김수영</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>sookim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>054) 279-2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>김승빈</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sbkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>김승환</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>swan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>054) 279-2085</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>김연수</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ysookim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>054) 054-279-2136</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>김영걸</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ygkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>김영기</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ykkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>054) 054-279-2267</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>김영수</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ysk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>김영진</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>powersys@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>054) 054-279-2368</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>김영진</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>yjkim01@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>김용민</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>yongmin.kim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>054) 279-8841</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>김용태</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>yongtae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>054) 054-279-2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>김욱성</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>wsungkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>054) 054-279-2363</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>김원배</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>kimwb@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>054) 054-279-2397</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>김원종</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>wjkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>054) 279-2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>김원화</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>wonhwa@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>김유성</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>kimys@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>김윤호</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>yoonho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>054) 279-2093</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>김재삼</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jsk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>김재준</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaejoon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>054) 279-8861</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>김정훈</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>joungkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>054) 279-2347</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>김정훈</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>junghoonkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>054) 054-279-2230</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>김종</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>054) 279-2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>김종규</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>kimjk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>054) 279-2149</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>김종민</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>minijong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>054) 054-279-2322</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>김종순</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>jskim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>김종환</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>jonghwankim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>054) 054-279-2137</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>김준성</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>js.kim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>054) 279-2098</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>김준원</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>joonwon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>054) 279-2185</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>김지훈</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>jeehoon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>054) 279-2077</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>김진곤</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>jkkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>054) 279-2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>김진희</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>jinheekim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>054) 279-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>김철언</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ckim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>김철주</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>kimcj@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>054) 054-279-2335</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>김철홍</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>chulhong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>054) 279-8805</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>김치하</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>chkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>김태경</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>tkkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>054) 054-279-2293</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>김태환</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>taehwan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>054) 054-279-2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>김현광</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>hkkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>054) 279-2049</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>김형섭</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>hskim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>054) 279-2150</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>김형함</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>davidkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>054) 054-279-8864</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>김효태</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>htkim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>김희철</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>heecheol@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>054) 054-279-2071</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>남광희</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>kwnam@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>054) 279-2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>남인식</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>isnam@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>노용영</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>yynoh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>노준석</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>jsrho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>054) 279-2187</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>노태영</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>tyroh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>054) 054-279-2350</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>류성호</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sungho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>054) 279-2292</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>류순민</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sunryu@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>054) 054-279-2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>문원규</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>wkmoon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>054) 279-2184</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>민병일</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>bimin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>054) 279-2074</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>민승기</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>skmin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>054) 279-2286</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>박문정</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>moonpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>054) 279-2342</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>박부견</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ppg@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>054) 279-2238</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>박상기</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>skpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>054) 279-2349</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>박상준</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>literae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>054) 279-2035</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>박선아</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>sarahpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>054) 054-279-2110</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>박성민</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>sungminpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>054) 054-279-8842</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>박성우</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>gla@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>054) 279-2386</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>박성진</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>sjpark87@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>054) 279-2182</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>박수용</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sypark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>박수진</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>psj@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>054) 054-279-2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>박승열</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>seungpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>054) 054-279-2325</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>박위상</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>wsp@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>박은혁</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>hyek90@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>054) 054-279-2247</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>박재모</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>jaemo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>054) 279-2090</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>박재석</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>jaesuk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>054) 279-2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>박재성</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>jpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>054) 279-2188</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>박재식</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>jaesik@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>박재욱</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>pjw@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>054) 279-2117</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>박재훈</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>jhp@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>054) 279-2088</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>박종국</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>bak@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>054) 279-2057</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>박종문</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>jmpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>054) 279-2275</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>박주홍</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>juhpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>054) 054-279-8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>박준원</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>jwpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>054) 054-279-2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>박지우</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>jeewoopark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>054) 054-279-2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>박지훈</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>wlog@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>054) 279-2059</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>박지훈</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>jeehoonpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>054) 054-279-2328</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>박찬경</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>나노융합기술원</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>cgpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>박찬모</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>parkcm@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>박찬언</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>cep@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>박찬익</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>cipark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>054) 279-2248</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>박태호</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>taihopark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>054) 279-2394</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>박현철</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>엔지니어링 대학원</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>hcpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>박형규</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>parkhg@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>054) 054-279-2175</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>박홍준</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>hjpark@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>054) 279-2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>반창일</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ciban@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>054) 279-2127</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>방승양</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>sybang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>방윤규</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ykbang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>054) 054-279-2081</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>배경민</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>kmbae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>054) 054-279-2256</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>배명진</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>mjbae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>054) 279-2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>배영</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>youngbae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>054) 054-279-2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>백록현</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>rock8201@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>054) 054-279-2220</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>백성기</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>sgbaik@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>백승태</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>sbaek@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>054) 054-279-2360</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>백창기</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>baekck@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>054) 054-279-8893</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>서동우</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>dongwoo1@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>054) 054-279-9030</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>서석환</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>shs@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>서영주</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>yjsuh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>054) 279-2243</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>서의호</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ehsuh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>서종철</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>zerois@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>054) 054-279-2341</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>서판길</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>pgs@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>석성호</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>salk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>성영철</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ycsung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>054) 279-2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>성우경</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>wsung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>성효진</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>hsung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>054) 054-279-2255</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>손기훈</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>khsohn@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>054) 054-279-2357</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>손민주</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>mjshon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>054) 054-279-2062</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>손영환</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>yhson@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>054) 054-2792326</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>손준우</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>jwson@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>054) 279-2156</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>손창윤</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>changyunson@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>054) 054-279-2333</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>송민석</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>mssong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>054) 054-279-2376</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>송우진</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>wjsong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>054) 279-2229</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>송창용</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>cysong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>054) 279-2096</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>송호근</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>hknsong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>송호진</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>hojin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>054) 054-279-2235</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>송황준</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>hwangjun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>054) 279-2246</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>신근유</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>kunyoos@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>054) 054-279-2358</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>신승구</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>skshin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>054) 279-2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>신희득</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>heedeukshin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>054) 054-279-2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>심재윤</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>jysim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>054) 279-2378</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>심지훈</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>jhshim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>054) 279-2344</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>안교한</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ahn@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>054) 279-2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>안진흥</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>안희갑</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>heekap@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>054) 054-279-2387</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>양경철</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>kcyang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>054) 279-2239</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>양현종</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>hyunyang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>054) 054-279-2213</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>엄우용</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>wooyongum@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>054) 054-279-9563</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>염영일</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>youm@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>염한웅</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>yeom@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>054) 279-2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>오세영</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>syoh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>오승수</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>seungsoo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>054) 054-279-2144</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>오용근</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>yongoh1@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>054) 279-2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>오은진</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>jin9082@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>054) 054-279-2389</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>오태현</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>taehyun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>054) 054-279-2212</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>옥정슬</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>jungseul@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>054) 054-279-2242</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>용기중</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>kyong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>054) 054-279-2278</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>우정아</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>woojungah@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>054) 279-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>원상철</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>won@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>유대식</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>dsyu@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>유동현</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>dhyou@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>054) 054-279-2191</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>유선철</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>sncyu@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>054) 054-279-9504</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>유주연</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>jyoo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>054) 279-2346</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>유창모</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ryu201@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>유환조</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>hwanjoyu@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>054) 279-2388</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>유희천</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>hcyou@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>054) 279-2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>윤건수</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>gunsu@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>054) 279-2079</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>윤무현</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>moohyun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>054) 279-2080</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>윤용주</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>yjyun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>054) 054-279-2398</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>이강복</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>kblee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>054) 054-279-2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>이건홍</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ce20047@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>054) 279-2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>이경희</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>kyunglee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>이근배</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>gblee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>054) 279-2254</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>이기봉</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>kibong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>이기택</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ktl@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>054) 054-279-2285</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>이길호</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>lghman@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>054) 054-279-2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>이남윤</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>nylee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>054) 279-2365</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>이대수</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>dlee1@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>054) 054-279-2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>이동녕</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>tnlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>이동현</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>donglee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>이동화</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>donghwa96@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>054) 054-279-2160</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>이문주</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>moolee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>054) 054-279-2221</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>이병주</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>calphad@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>054) 279-2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>이병훈</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>bhlee1@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>054) 054-279-2217</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>이상준</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>sjlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>054) 279-2169</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>이승구</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>slee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>054) 279-2236</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>이승용</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>leesy@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>054) 054-279-2245</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>이승우</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>monk@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>054) 279-2355</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>이승철</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>seunglee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>054) 054-279-2181</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>이시우</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>srhee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>이안나</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>annalee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>054) 054-279-2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>이영숙</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ylee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>054) 279-2296</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>이영주</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>youngjoolee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>054) 054-279-2369</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>이영호</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>yhrhee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>054) 279-2121</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>이유정</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>youjeong77@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>054) 054-279-2359</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>이윤태</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>yoontael@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>054) 279-2354</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>이은성</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>eslee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>054) 279-2111</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>이을범</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>dreblee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>054) 279-0136</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>이인수</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>insulee97@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>054) 279-2103</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>이장식</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>jangsik@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>054) 279-2153</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>이재구</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>jkl@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>이재성</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>jlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>이정림</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>cnlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>이정수</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>ljs6951@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>054) 279-2380</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>이정욱</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>jeongwook@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>054) 054-279-2337</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>이종람</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>jllee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>054) 279-2152</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>이종봉</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>jblee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>054) 279-2095</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>이종혁</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>jhlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>054) 279-2253</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>이지오</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>jieoh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>054) 054-279-2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>이진수</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>jsoo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>이진옥</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>colee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>이진우</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>jinwoolee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>054) 279-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>이진원</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>jwlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>이충형</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>chung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>054) 054-279-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>이필중</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>pjl@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>이해건</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>hglee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>이현우</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>hwl@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>054) 279-2092</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>이효민</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>hyomin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>054) 054-279-2336</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>이후종</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>hjlee@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>임경순</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>gsim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>054) 279-2034</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>임근배</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>limmems@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>054) 054-279-2186</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>임신혁</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>iimsh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>054) 279-2356</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>임창희</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>chyim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>054) 279-9001</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>임현석</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>hslim@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>054) 054-279-2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>장근수</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>kschang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>장봉규</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>bonggyujang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>054) 279-2372</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>장수영</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>chang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>장수영</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>syc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>054) 279-2198</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>장승기</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>sungkey@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>054) 279-2298</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>장영원</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ywchang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>장영태</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ytchang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>054) 054-279-2101</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>장윤석</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>yschang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>054) 279-2281</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>장지원</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>jiwonjang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>054) 054-279-2321</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>장진아</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>jinahjang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>054) 054-279-8821</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>장태현</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>tc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>장현명</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>hmjang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>전경훈</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>cheun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>전보광</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>leojeon@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>054) 054-279-2046</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>전상민</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>jeons@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>054) 279-2392</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>전요셉</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>jys900311@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>054) 054-279-2232</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>전재형</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>jeonjh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>054) 054-279-2070</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>전중환</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>plume@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>전치혁</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>chjun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>정광민</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>kwjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>054) 054-279-2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>정규열</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>gyjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>054) 279-2391</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>정대성</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>dchung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>정대영</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>daeyoung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>054) 054-279-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>정무영</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>myjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>정민근</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>mkc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>정석민</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>smc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>정성기</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>skchung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>정성모</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>smjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>054) 279-9012</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>정성준</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>창의IT융합공학과</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>sjjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>054) 054-279-8868</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>정세향</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>shchung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>정완균</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>wkchung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>054) 279-2172</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>정우성</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>wsjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>054) 054-279-1263</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>정운룡</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>ujeong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>054) 279-2148</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>정윤영</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>ychung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>054) 054-279-2225</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>정재훈</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>jung153@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>정종식</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>정진욱</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>jwc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>정진철</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>jcjung@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>정홍</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>hjeong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>제정호</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>jhje@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>054) 279-2143</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>조강우</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>kwcho1982@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>054) 054-279-2289</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>조길영</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>gilyoungcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>054) 054-279-2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>조길원</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>kwcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>054) 279-2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>조동완</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>dongwanc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>054) 279-2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>조동우</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>dwcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>054) 279-2171</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>조무현</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>mhcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>조문호</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>mhjo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>054) 279-2158</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>조민수</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>mscho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>054) 054-279-2385</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>조성문</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>sungmuncho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>054) 054-279-2045</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>조성현</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>sodomau@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>054) 054-279-2261</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>조승환</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>seunghwan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>054) 279-2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>조윤제</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>yunje@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>054) 279-2288</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>조준호</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>jcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>054) 279-2377</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>조중욱</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>jungwook@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>054) 054-279-9057</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>조항진</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>jhj04@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>054) 054-279-9560</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>조현보</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>hcho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>054) 279-2204</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>주태하</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>thjoo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>054) 279-2122</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>지승훈</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>jhish@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>054) 279-2094</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>지형민</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>hmchi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>054) 054-279-2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>진왕철</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>wczin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>진현규</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>hgjin@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>054) 054-279-2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>차재춘</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>jccha@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>054) 279-2060</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>차형준</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>hjcha@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>054) 054-279-2280</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>채민우</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>mchae@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>054) 054-279-2207</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>채치범</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>cbchae76@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>최경만</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>gmchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>최관용</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>kchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>최규하</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>kyuha@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>054) 054-279-2361</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>최동구</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>dgchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>054) 054-279-2375</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>최민석</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>mchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>054) 054-279-2055</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>최상일</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>sangil@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>최성섭</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>schoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>054) 279-2058</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>최수석</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>choiss@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>최승문</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>choism@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>054) 279-2384</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>최시영</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>youngchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>054) 054-279-2161</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>최영주</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>yjc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>054) 279-2051</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>최원용</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>wchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>054) 279-2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>최윤성</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>mathchoi@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>054) 279-2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>최인준</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>injun@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>054) 279-2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>최희철</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>choihc@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>054) 279-2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>한광석</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>인문사회학부</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>econhahn@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>054) 279-2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>한성호</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>shan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>054) 279-2203</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>한세광</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>skhanb@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>054) 279-2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>한수희</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>sooheehan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>054) 279-8867</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>한욱신</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>인공지능대학원</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>wshan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>054) 279-8866</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>한정우</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>화학공학과</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>jwhan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>054) 054-279-2338</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>한종훈</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>화학과</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>hahn@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>054) 279-2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>한준희</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>joonhan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>한진관</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>jkh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>054) 279-2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>한해욱</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>hhan@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>054) 279-2240</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>허강열</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>huh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>054) 279-2177</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>허윤욱</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>철강 · 에너지소재대학원</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>yunuk01@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>054) 054-279-9036</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>허종</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>첨단원자력공학부</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>jheo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>054) 279-2147</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>홍석봉</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>sbhong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>054) 279-2284</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>홍성제</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>sjhong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>홍승표</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>sungpyo@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>홍원기</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>jwkhong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>054) 054-279-2244</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>홍원빈</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>전자전기공학과</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>whong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>054) 054-279-2366</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>홍유신</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>산업경영공학과</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>yhong@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>홍정기</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>물리학과</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ckho@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">054) </t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>황동수</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>dshwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>054) 279-9505</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>황석환</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>환경공학부</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>shwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>054) 279-2282</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>황승준</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>첨단재료과학부</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>sjhwang17@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>054) 054-279-2125</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>황운봉</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>기계공학과</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>whwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>054) 054-279-2174</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>황인석</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>컴퓨터공학과</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>inseokh@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>054) 054-279-2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>황인환</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ihhwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>054) 054-279-2128</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>황일두</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>ihwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>054) 279-2291</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>황철상</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>생명과학과</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>cshwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>054) 279-2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>황현상</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>신소재공학과</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>hwanghs@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>054) 279-2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>황형주</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>수학과</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>hjhwang@postech.ac.kr</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>054) 279-2056</t>
         </is>
       </c>
     </row>

--- a/professor/professor.xlsx
+++ b/professor/professor.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,836 +446,1496 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>강윤철(姜潤㬚) 조교수</t>
+          <t>강현정</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">경영정보시스템 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yckang@ewha.ac.kr</t>
+          <t>hjkang@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-3277-4203</t>
+          <t>02-320-1701</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>강혜련(姜惠蓮) 교수</t>
+          <t>김유찬</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">세무학 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hrk@ewha.ac.kr</t>
+          <t>99yckim@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-3277-2273</t>
+          <t>02-320-1708</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>곽진경(郭鎭暻) 부교수</t>
+          <t>류춘호</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jkkwak@ewha.ac.kr</t>
+          <t>ryuch@wow.hongik.ac.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-3277-2793</t>
+          <t>02-320-1715</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>김경민(金京玟) 교수</t>
+          <t>문태원</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>Organizational Behavior</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gkim@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-3277-3581</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김봉진(金奉辰) 교수</t>
+          <t>변지석</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">경영정보학 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bkim432@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02-3277-2790</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김상준(金相俊) 조교수</t>
+          <t>신병현</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">조직행동 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>s.kim@ewha.ac.kr</t>
+          <t>shinbh@wow.hongik.ac.kr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02-3277-2654</t>
+          <t>02-320-1721</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김은갑(金恩甲) 교수</t>
+          <t>신성환</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">재무관리 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>evanston@ewha.ac.kr</t>
+          <t>shshin@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02-3277-3970</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김진호(金鎭浩) 교수</t>
+          <t>신형덕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">경영전략 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>jhkim@ewha.ac.kr</t>
+          <t>shinhd@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02-3277-2800</t>
+          <t>02-320-1724</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>김효근(金孝根) 교수</t>
+          <t>안형준</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">경영정보시스템 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kym@ewha.ac.kr</t>
+          <t>hjahn@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02-3277-2791</t>
+          <t>02-320-1730</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>민대기(閔大基) 부교수</t>
+          <t>윤나라</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">마케팅 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dmin@ewha.ac.kr</t>
+          <t>nara@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02-3277-3923</t>
+          <t>02-320-1728</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>박성연(朴性姸) 교수</t>
+          <t>윤재원</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">회계학 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sypark@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02-3277-2798</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>박소라(朴素羅) 부교수</t>
+          <t>이경주</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">보험이론 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sorah.park@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>02-3277-6852</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>박정은(朴正殷) 교수</t>
+          <t>이광철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">국제경영 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>jepark@ewha.ac.kr</t>
+          <t>kclee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>02-3277-6654</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>배재현(裵宰賢) 교수</t>
+          <t>이기엽</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">경영통계 및 마케팅 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pae@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02-3277-3408</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>변진호(邊進昊) 교수</t>
+          <t>이재은</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>회계학</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jbyun@ewha.ac.kr</t>
+          <t>jelee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02-3277-3971</t>
+          <t>02-320-1733</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>신경식(申璟植) 교수</t>
+          <t>이호배</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">마케팅 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ksshin@ewha.ac.kr</t>
+          <t>hblee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02-3277-2799</t>
+          <t>02-320-1736</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>신정순(申正淳) 부교수</t>
+          <t>임병권</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">전기공학 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>shinjs@ewha.ac.kr</t>
+          <t>bkrhim@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02-3277-6715</t>
+          <t>02-320-1767</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>안지영(安智映) 부교수</t>
+          <t>정영기</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영학</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jy-ahn@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02-3277-6714</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>양희동(梁熙東) 교수</t>
+          <t>정태영</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">국제경영, 국제재무 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hdyang@ewha.ac.kr</t>
+          <t>tychung@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>02-3277-3582</t>
+          <t>02-320-1740</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>여윤경(余允敬) 교수</t>
+          <t>고정민</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>조직이론/인사관리전공</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>yuhyk@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>02-3277-4076</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>우용상(禹溶相) 부교수</t>
+          <t>권경민</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>yswoo@ewha.ac.kr</t>
+          <t>km.kwon@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>02-3277-6854</t>
+          <t>02-320-1700</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>윤정구(尹正九) 교수</t>
+          <t>박민재</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>jkyoon@ewha.ac.kr</t>
+          <t>mjpark@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>02-3277-6647</t>
+          <t>02-320-1720</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>이종국(李鍾國) 교수</t>
+          <t>양인선</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>jongkuk@ewha.ac.kr</t>
+          <t>iyang@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>02-3277-6713</t>
+          <t>02-320-1752</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>정명호(鄭明鎬) 교수</t>
+          <t>이승윤</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>인사조직</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>myhoc@ewha.ac.kr</t>
+          <t>syrhee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02-3277-6648</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>정문종(鄭文鐘) 교수</t>
+          <t>이진표</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mchung@ewha.ac.kr</t>
+          <t>jinpyo.lee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02-3277-3584</t>
+          <t>02-320-1734</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>조혜정(趙慧庭) 교수</t>
+          <t>정광헌</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hj_cho@ewha.ac.kr</t>
+          <t>khchung@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02-3277-6719</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>지홍민(智弘珉) 교수</t>
+          <t>조성호</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>전략경영</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>zih@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>02-3277-3924</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>채상미(蔡祥美) 부교수</t>
+          <t>조원일</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영학</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>smchai@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>02-3277-2780</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>최동원 조교수</t>
+          <t>황현철</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>응용수학</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>dwchoi@ewha.ac.kr</t>
+          <t>hchwang@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>02-3277-4204</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>최문섭(崔文燮) 부교수</t>
+          <t>Yoon-Na Cho</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">마케팅 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>paul.choi@ewha.ac.kr</t>
+          <t>비공개</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>02-3277-3922</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>최승호(崔承鎬) 부교수</t>
+          <t>곽소연</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>회계학</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>choise@ewha.ac.kr</t>
+          <t>sykwack@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02-3277-4138</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>최형석(崔亨碩) 교수</t>
+          <t>김승범</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>hyungsuk.choi@ewha.ac.kr</t>
+          <t>prof.sbkim@gmail.com</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>02-3277-4139</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>한종수(韓宗秀) 교수</t>
+          <t>김진희</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jhan@ewha.ac.kr</t>
+          <t>jh_kim@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>02-3277-2779</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>고유미(高有瑂) 초빙교수</t>
+          <t>박상희</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">인사관리/조직행동 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>yumiko@ewha.ac.kr</t>
+          <t>spark436@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02-3277-2779</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>김지영(金志英) 초빙교수</t>
+          <t>안혜진</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t xml:space="preserve">회계학전공  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>jeeyoungkim1@ewha.ac.kr</t>
+          <t>hjinahn@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>02-3277-2779</t>
+          <t>02-320-1761</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>백민자 초빙교수</t>
+          <t>유건재</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>Industrial and Labor Relations</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>mjbaek@ewha.ac.kr</t>
+          <t>gy52@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>02-3277-2779</t>
+          <t>02-320-1718</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>서현주 초빙교수</t>
+          <t>이대창</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>노동경제학</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>hyunju.suh@ewha.ac.kr</t>
+          <t>daechang.lee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>511-7265~8</t>
+          <t>비공개</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>이현주 초빙교수</t>
+          <t>이미림</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>경영학부</t>
+          <t>경영과학/생산관리</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hyunju7@ewha.ac.kr</t>
+          <t>mllee@hongik.ac.kr</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>511-7265~8</t>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>이승연</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경영학 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>yonylee@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>이준환</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Marketing Consumer Behavior</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jdfresh@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>장웅조</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arts Policy and Administration</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>woongjochang@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>02-320-1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>정남철</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경영학과  </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>정호진</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>hojin@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>02-320-1711</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>조나은</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경영전략 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ncho@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>조형태</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">세무회계 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cht1212@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>02-320-1764</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>최용준</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>경영학(인사조직)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>yongjun.choi@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>한승엽</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>회계학</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>goodwillhan@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>한승진</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>재무학</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sjhan7@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>02-320-1749</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>현은정</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경영(조직) </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ejhyun@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02 320 1756</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>홍기훈</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">economics  </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>khhong@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ogata Yoshihiro</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>정치학</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ogata@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>02-320-3340</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Zheng Zhenmei</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>중어중문학</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jmclara0811@empas.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Bernard D. Wiley</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Political Science</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>bwhongik@gmail.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michael R. Spillane</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>English Literature</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>spillachio@yahoo.co.uk</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>김종석</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경제학 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jskim@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>02-320-1707</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>김철중</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">재무관리 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>이원흠</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">재무관리 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>배원기</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>회계학</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>wkpae@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김형욱</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">생산관리 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>선우석호</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">재무관리 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>sonu@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>신홍철</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">관리회계 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>shinhc@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>02-320-1722</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>김경호</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>재무회계 및 정부비영리회계</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>김보람</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>생산서비스경영</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김용환 </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>무역론전공</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>yhkim02@hongik.ac.kr</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>02-320-2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>노형봉</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>경영과학</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>문성환</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>세무학과</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cpamsh2020@gmail.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>정라미</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>국제경영</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>비공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>최미수</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보험경영전공 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>cms@sdu.ac.kr</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>비공개</t>
         </is>
       </c>
     </row>

--- a/professor/professor.xlsx
+++ b/professor/professor.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,242 +446,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김소영</t>
+          <t>진성원</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>교양교직과정부 교육과정 및 교육평가</t>
+          <t>성악</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ksoyoung@knsu.ac.kr</t>
+          <t>201412019@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-410-6959맞춤</t>
+          <t>031-750-5896</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김양희</t>
+          <t>김봉</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>교양교직과정부 컴퓨터</t>
+          <t>첼로</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yangh-kim@knsu.ac.kr</t>
+          <t xml:space="preserve"> bkim@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-410-6819맞춤</t>
+          <t>031-750-5905</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김옥희</t>
+          <t>김현숙</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>교양교직과정부 일본어</t>
+          <t>플루트</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>koh@knsu.ac.kr</t>
+          <t xml:space="preserve"> hskim@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-410-6965맞춤</t>
+          <t>031-750-5906</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>김혜영</t>
+          <t>전혜수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>교양교직과정부 물리학</t>
+          <t>음악교육과피아노</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hykim@knsu.ac.kr</t>
+          <t xml:space="preserve"> hjhun@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-410-6824맞춤</t>
+          <t>031-750-5915</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>박호근</t>
+          <t>김광군</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>교양교직과정부 교육학개론</t>
+          <t>바이올린</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hoohoo386@knsu.ac.kr</t>
+          <t xml:space="preserve"> kkkim@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02-410-6848맞춤</t>
+          <t>031-750-5908</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>심승구</t>
+          <t>조숙현</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>교양교직과정부 한국사</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>skshim@knsu.ac.kr</t>
+          <t xml:space="preserve"> scho5929@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02-410-6957맞춤</t>
+          <t>031-750-5929</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>안태연</t>
+          <t>한형실</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>교양교직과정부 교양영어</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ahnt@knsu.ac.kr</t>
+          <t xml:space="preserve"> hhan@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02-410-6924맞춤</t>
+          <t>031-750-5919</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>유임하</t>
+          <t>최경아</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>교양교직과정부 교양국어</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cultura@knsu.ac.kr</t>
+          <t xml:space="preserve"> kachoi@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02-410-6890맞춤</t>
+          <t>031-750-5931</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이도연</t>
+          <t>김영숙</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>교양교직과정부 말과 글</t>
+          <t>피아노교수법</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balinais@knsu.ac.kr</t>
+          <t xml:space="preserve"> kys@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02-410-6921맞춤</t>
+          <t>031-750-5525</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>조정호</t>
+          <t>백승우</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>교양교직과정부 교육철학</t>
+          <t>작곡</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jade@knsu.ac.kr</t>
+          <t>iscmpaik@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02-410-6814맞춤</t>
+          <t>031-750-5930</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>지인영</t>
+          <t>이혜성</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>교양교직과정부 영어</t>
+          <t>작곡</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>iyjhee@knsu.ac.kr</t>
+          <t>kometlee@gachon.ac.kr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02-410-6963맞춤</t>
+          <t>031-750-5480</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>김남수</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>체육생리학</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kns43@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>031-750-5638</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>박상용</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>체육학</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sypark8389@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>031-750-4735</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>김창균</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>운동생리학</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ckkim@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>031-750-4768</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>김순영</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>스포츠심리학</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>klpga0166@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>031-750-4769</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>양대승</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>체육학</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>taekwon@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>031-750-5107</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>곽정현</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>체육원리</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>muyein@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>031-750-5106</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>장세용</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>스포츠심리학</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>naganolala@gachon.ac.kr</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>031-750-5109</t>
         </is>
       </c>
     </row>
